--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -841,7 +841,7 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Economic performance</t>
+          <t>Economic output</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Sustainable consumption</t>
+          <t>Responsible consumption</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Sustainable production</t>
+          <t>Responsible production</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Sustainable procurement</t>
+          <t>Responsible procurement</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Tab_2a_Bereiche"/>
+    <sheet sheetId="1" r:id="rId1" name="Tab_3a_Postulate"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,21 +443,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="10.984375"/>
-    <col customWidth="true" min="2" max="2" width="7.46875"/>
-    <col customWidth="true" min="3" max="3" width="36.03515625"/>
-    <col customWidth="true" min="4" max="4" width="42.91796875"/>
+    <col customWidth="true" min="1" max="1" width="13.8359375"/>
+    <col customWidth="true" min="2" max="2" width="11.71875"/>
+    <col customWidth="true" min="3" max="3" width="67.52734375"/>
+    <col customWidth="true" min="4" max="4" width="70.8984375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>PNr</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>BNr</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>ZNr</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -474,858 +474,924 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
           <t>Z01_B01</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Z01</t>
-        </is>
-      </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Armut</t>
+          <t>Armut begrenzen</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Poverty</t>
+          <t>Limiting poverty</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>Z02_B01_P01</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
           <t>Z02_B01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Z02</t>
-        </is>
-      </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Landbewirtschaftung</t>
+          <t>In unseren Kulturlandschaften umweltverträglich produzieren</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Farming</t>
+          <t>Environmentally sound production in our cultivated landscapes</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>Z02_B02_P01</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
           <t>Z02_B02</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Z02</t>
-        </is>
-      </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Ernährungssicherung</t>
+          <t>Das Recht auf Nahrung weltweit verwirklichen</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Food security</t>
+          <t>Realising globally the right to food</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
           <t>Z03_B01</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Z03</t>
-        </is>
-      </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Gesundheit und Ernährung</t>
+          <t>Länger gesund leben</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Health and nutrition</t>
+          <t>Living healthy longer</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
+          <t>Z03_B02_P01</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
           <t>Z03_B02</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Z03</t>
-        </is>
-      </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Luftbelastung</t>
+          <t>Gesunde Umwelt erhalten</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Air pollution</t>
+          <t>Keeping the environment healthy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
           <t>Z03_B03</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Z03</t>
-        </is>
-      </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Globale Gesundheit</t>
+          <t>Globale Gesundheitsarchitektur stärken</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Global health</t>
+          <t>Strengthening the global health architecture</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
+          <t>Z04_B01_P01</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
           <t>Z04_B01</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Z04</t>
-        </is>
-      </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Bildung</t>
+          <t>Bildung und Qualifikation kontinuierlich verbessern</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Continuously improving education and vocational training</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
+          <t>Z04_B02_P01</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
           <t>Z04_B02</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Z04</t>
-        </is>
-      </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Perspektiven für Familien</t>
+          <t>Vereinbarkeit von Familie und Beruf verbessern</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Prospects for families</t>
+          <t>Improving the compatibility of work and family life</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Z05</t>
-        </is>
-      </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung</t>
+          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Equality</t>
+          <t>Promoting equal opportunities in society</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01</t>
+          <t>Z05_B01_P02</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z05_B01</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Gewässerqualität</t>
+          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Water quality</t>
+          <t>Strengthening the economic participation of women globally</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02</t>
+          <t>Z06_B01_P01</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z06_B01</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>Minderung der stofflichen Belastung von Gewässern</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Drinking water and sanitation</t>
+          <t>Reducing the pollution of water with substances</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01</t>
+          <t>Z06_B02_P01</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z07</t>
+          <t>Z06_B02</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Besserer Zugang zu Trinkwasser- und Sanitärversorgung weltweit, höhere (sichere) Qualität</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Better access to drinking water and sanitation worldwide, higher (safer) quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02</t>
+          <t>Z07_B01_P01</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07</t>
+          <t>Z07_B01</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare Energien</t>
+          <t>Ressourcen sparsam und effizient nutzen</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>Using resources economically and efficiently</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01</t>
+          <t>Z07_B02_P01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z07_B02</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Zukunftsfähige Energieversorgung ausbauen</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Strengthening a sustainable energy supply</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02</t>
+          <t>Z08_B01_P01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z08_B01</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Staatsverschuldung</t>
+          <t>Ressourcen sparsam und effizient nutzen</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Using resources economically and efficiently</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03</t>
+          <t>Z08_B02_P01</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z08_B02</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Zukunftsvorsorge</t>
+          <t>Staatsfinanzen konsolidieren – Generationengerechtigkeit schaffen</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Provision for future economic stability</t>
+          <t>Consolidating public finances – Creating intergenerational equity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04</t>
+          <t>Z08_B03_P01</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z08_B03</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Leistungsfähigkeit</t>
+          <t>Gute Investitionsbedingungen schaffen – Wohlstand dauerhaft erhalten</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Economic output</t>
+          <t>Creating favourable investment conditions – Securing long-term prosperity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05</t>
+          <t>Z08_B04_P01</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z08_B04</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigung</t>
+          <t>Wirtschaftsleistung umwelt- und sozialverträglich steigern</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Combining greater economic output with environmental and social responsibility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06</t>
+          <t>Z08_B05_P01</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z08_B05</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Globale Lieferketten</t>
+          <t>Beschäftigungsniveau steigern</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Global supply chains</t>
+          <t>Boosting employment levels</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01</t>
+          <t>Z08_B06_P01</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z09</t>
+          <t>Z08_B06</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Menschenwürdige Arbeit weltweit ermöglichen</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Enabling decent work worldwide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01</t>
+          <t>Z09_B01_P01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z10</t>
+          <t>Z09_B01</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Gleiche Bildungschancen</t>
+          <t>Zukunft mit neuen Lösungen nachhaltig gestalten</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Equal educational opportunities</t>
+          <t>Shaping the future with new solutions</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02</t>
+          <t>Z10_B01_P01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z10</t>
+          <t>Z10_B01</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Verteilungsgerechtigkeit</t>
+          <t>Schulische Bildungserfolge von Ausländern in Deutschland verbessern</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Distributive justice</t>
+          <t>Improving educational success of foreigners in German schools</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01</t>
+          <t>Z10_B02_P01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z10_B02</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Flächeninanspruchnahme</t>
+          <t>Zu große Ungleichheit innerhalb Deutschlands verhindern</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Land use</t>
+          <t>Preventing excessive inequality within Germany</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02</t>
+          <t>Z11_B01_P01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z11_B01</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Mobilität</t>
+          <t>Flächen nachhaltig nutzen</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Using land sustainably</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03</t>
+          <t>Z11_B02_P01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z11_B02</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Wohnen</t>
+          <t>Mobilität sichern – Umwelt schonen</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Guaranteeing mobility – Protecting the environment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04</t>
+          <t>Z11_B03_P01</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z11_B03</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Kulturerbe</t>
+          <t>Bezahlbarer Wohnraum für alle</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Cultural heritage</t>
+          <t>Affordable housing for all</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01</t>
+          <t>Z11_B04_P01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z12</t>
+          <t>Z11_B04</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltiger Konsum</t>
+          <t>Zugang zum Kulturerbe verbessern</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Responsible consumption</t>
+          <t>Improving access to cultural heritage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02</t>
+          <t>Z12_B01_P01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z12</t>
+          <t>Z12_B01</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Produktion</t>
+          <t>Konsum umwelt- und sozialverträglich gestalten</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Responsible production</t>
+          <t>Making consumption environmentally and socially compatible</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03</t>
+          <t>Z12_B02_P01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z12</t>
+          <t>Z12_B02</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Beschaffung</t>
+          <t>Anteil nachhaltiger Produktion stetig erhöhen</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Responsible procurement</t>
+          <t>Increasing the proportion of sustainable production continuously</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01</t>
+          <t>Z12_B03_P01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z13</t>
+          <t>Z12_B03</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Klimaschutz</t>
+          <t>Vorbildwirkung der öffentlichen Hand für nachhaltige öffentliche Beschaffung verwirklichen</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Climate protection</t>
+          <t>Giving shape to the public sector’s exemplary role in sustainable procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01</t>
+          <t>Z13_B01_P01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z14</t>
+          <t>Z13_B01</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Meere schützen</t>
+          <t>Treibhausgase reduzieren</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Protecting the oceans</t>
+          <t>Reducing greenhouse gases</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01</t>
+          <t>Z13_B01_P02</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z15</t>
+          <t>Z13_B01</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt</t>
+          <t>Beitrag zur internationalen Klimafinanzierung leisten</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Germany's contribution to international climate finance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02</t>
+          <t>Z14_B01_P01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z15</t>
+          <t>Z14_B01</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Ökosysteme</t>
+          <t>Meere und Meeresressourcen schützen und nachhaltig nutzen</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Ecosystems</t>
+          <t>Protecting and sustainably using oceans and marine resources</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z15_B01_P01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15_B01</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Kriminalität</t>
+          <t>Arten erhalten – Lebensräume schützen</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Conserving species – Protecting habitats</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z15_B02_P01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15_B02</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Frieden und Sicherheit</t>
+          <t>Ökosysteme schützen, Ökosystemleistungen erhalten und Lebensräume bewahren</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Peace and security</t>
+          <t>Protecting ecosystems, conserving ecosystem services and preserving habitats</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z15_B02_P02</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15_B02</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Gute Regierungsführung</t>
+          <t>Weltweit Entwaldung vermeiden und Böden schützen</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Good governance</t>
+          <t>Preventing deforestation and protecting soils world-wide</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z16_B01_P01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16_B01</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Persönliche Sicherheit weiter erhöhen</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>Further increasing personal security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z16_B02_P01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Praktische Maßnahmen zur Bekämpfung der Proliferation, insbesondere von Kleinwaffen, ergreifen</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Knowledge transfer, especially in technical areas</t>
+          <t>Taking practical action to combat proliferation, especially of small arms</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
+          <t>Z16_B03_P01</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Korruption bekämpfen</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Combating corruption</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Nachhaltige Entwicklung unterstützen</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Supporting sustainable development</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Wissen international vermitteln</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Sharing knowledge internationally</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Z17</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>Märkte öffnen</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>Opening markets</t>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Handelschancen der Entwicklungsländer verbessern</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Improving trade opportunities for developing countries</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Tab_3a_Postulate"/>
+    <sheet sheetId="1" r:id="rId1" name="Tab_2a_Bereiche"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -443,21 +443,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="11.71875"/>
-    <col customWidth="true" min="3" max="3" width="67.52734375"/>
-    <col customWidth="true" min="4" max="4" width="70.8984375"/>
+    <col customWidth="true" min="1" max="1" width="10.984375"/>
+    <col customWidth="true" min="2" max="2" width="7.46875"/>
+    <col customWidth="true" min="3" max="3" width="36.03515625"/>
+    <col customWidth="true" min="4" max="4" width="42.91796875"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>PNr</t>
+          <t>BNr</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>BNr</t>
+          <t>ZNr</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
@@ -474,924 +474,858 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Z01_B01_P01</t>
+          <t>Z01_B01</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Z01_B01</t>
+          <t>Z01</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Armut begrenzen</t>
+          <t>Armut</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Limiting poverty</t>
+          <t>Poverty</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01_P01</t>
+          <t>Z02_B01</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Z02_B01</t>
+          <t>Z02</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>In unseren Kulturlandschaften umweltverträglich produzieren</t>
+          <t>Landbewirtschaftung</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Environmentally sound production in our cultivated landscapes</t>
+          <t>Farming</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Z02_B02_P01</t>
+          <t>Z02_B02</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Z02_B02</t>
+          <t>Z02</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Das Recht auf Nahrung weltweit verwirklichen</t>
+          <t>Ernährungssicherung</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Realising globally the right to food</t>
+          <t>Food security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01_P01</t>
+          <t>Z03_B01</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Z03_B01</t>
+          <t>Z03</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Länger gesund leben</t>
+          <t>Gesundheit und Ernährung</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>Living healthy longer</t>
+          <t>Health and nutrition</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02_P01</t>
+          <t>Z03_B02</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Z03_B02</t>
+          <t>Z03</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Gesunde Umwelt erhalten</t>
+          <t>Luftbelastung</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Keeping the environment healthy</t>
+          <t>Air pollution</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03_P01</t>
+          <t>Z03_B03</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Z03_B03</t>
+          <t>Z03</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Globale Gesundheitsarchitektur stärken</t>
+          <t>Globale Gesundheit</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Strengthening the global health architecture</t>
+          <t>Global health</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01_P01</t>
+          <t>Z04_B01</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01</t>
+          <t>Z04</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Bildung und Qualifikation kontinuierlich verbessern</t>
+          <t>Bildung</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Continuously improving education and vocational training</t>
+          <t>Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02_P01</t>
+          <t>Z04_B02</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02</t>
+          <t>Z04</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Vereinbarkeit von Familie und Beruf verbessern</t>
+          <t>Perspektiven für Familien</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Improving the compatibility of work and family life</t>
+          <t>Prospects for families</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P01</t>
+          <t>Z05_B01</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01</t>
+          <t>Z05</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung und partnerschaftliche Aufgabenteilung fördern</t>
+          <t>Gleichstellung</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Promoting equal opportunities in society</t>
+          <t>Equality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01_P02</t>
+          <t>Z06_B01</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01</t>
+          <t>Z06</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Teilhabe von Frauen global stärken</t>
+          <t>Gewässerqualität</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Strengthening the economic participation of women globally</t>
+          <t>Water quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01_P01</t>
+          <t>Z06_B02</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01</t>
+          <t>Z06</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Minderung der stofflichen Belastung von Gewässern</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Reducing the pollution of water with substances</t>
+          <t>Drinking water and sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02_P01</t>
+          <t>Z07_B01</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Besserer Zugang zu Trinkwasser- und Sanitärversorgung weltweit, höhere (sichere) Qualität</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Better access to drinking water and sanitation worldwide, higher (safer) quality</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01_P01</t>
+          <t>Z07_B02</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Ressourcen sparsam und effizient nutzen</t>
+          <t>Erneuerbare Energien</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Using resources economically and efficiently</t>
+          <t>Renewable energies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02_P01</t>
+          <t>Z08_B01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Zukunftsfähige Energieversorgung ausbauen</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Strengthening a sustainable energy supply</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01_P01</t>
+          <t>Z08_B02</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Ressourcen sparsam und effizient nutzen</t>
+          <t>Staatsverschuldung</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Using resources economically and efficiently</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02_P01</t>
+          <t>Z08_B03</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Staatsfinanzen konsolidieren – Generationengerechtigkeit schaffen</t>
+          <t>Wirtschaftliche Zukunftsvorsorge</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Consolidating public finances – Creating intergenerational equity</t>
+          <t>Provision for future economic stability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03_P01</t>
+          <t>Z08_B04</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Gute Investitionsbedingungen schaffen – Wohlstand dauerhaft erhalten</t>
+          <t>Wirtschaftliche Leistungsfähigkeit</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Creating favourable investment conditions – Securing long-term prosperity</t>
+          <t>Economic output</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04_P01</t>
+          <t>Z08_B05</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftsleistung umwelt- und sozialverträglich steigern</t>
+          <t>Beschäftigung</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Combining greater economic output with environmental and social responsibility</t>
+          <t>Employment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05_P01</t>
+          <t>Z08_B06</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigungsniveau steigern</t>
+          <t>Globale Lieferketten</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Boosting employment levels</t>
+          <t>Global supply chains</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06_P01</t>
+          <t>Z09_B01</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06</t>
+          <t>Z09</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Menschenwürdige Arbeit weltweit ermöglichen</t>
+          <t>Innovation</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Enabling decent work worldwide</t>
+          <t>Innovation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01_P01</t>
+          <t>Z10_B01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01</t>
+          <t>Z10</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Zukunft mit neuen Lösungen nachhaltig gestalten</t>
+          <t>Gleiche Bildungschancen</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Shaping the future with new solutions</t>
+          <t>Equal educational opportunities</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01_P01</t>
+          <t>Z10_B02</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01</t>
+          <t>Z10</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Schulische Bildungserfolge von Ausländern in Deutschland verbessern</t>
+          <t>Verteilungsgerechtigkeit</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Improving educational success of foreigners in German schools</t>
+          <t>Distributive justice</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02_P01</t>
+          <t>Z11_B01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Zu große Ungleichheit innerhalb Deutschlands verhindern</t>
+          <t>Flächeninanspruchnahme</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Preventing excessive inequality within Germany</t>
+          <t>Land use</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01_P01</t>
+          <t>Z11_B02</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Flächen nachhaltig nutzen</t>
+          <t>Mobilität</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Using land sustainably</t>
+          <t>Mobility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02_P01</t>
+          <t>Z11_B03</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Mobilität sichern – Umwelt schonen</t>
+          <t>Wohnen</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Guaranteeing mobility – Protecting the environment</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03_P01</t>
+          <t>Z11_B04</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Bezahlbarer Wohnraum für alle</t>
+          <t>Kulturerbe</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Affordable housing for all</t>
+          <t>Cultural heritage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04_P01</t>
+          <t>Z12_B01</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Zugang zum Kulturerbe verbessern</t>
+          <t>Nachhaltiger Konsum</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Improving access to cultural heritage</t>
+          <t>Responsible consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01_P01</t>
+          <t>Z12_B02</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Konsum umwelt- und sozialverträglich gestalten</t>
+          <t>Nachhaltige Produktion</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Making consumption environmentally and socially compatible</t>
+          <t>Responsible production</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02_P01</t>
+          <t>Z12_B03</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Anteil nachhaltiger Produktion stetig erhöhen</t>
+          <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Increasing the proportion of sustainable production continuously</t>
+          <t>Responsible procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03_P01</t>
+          <t>Z13_B01</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03</t>
+          <t>Z13</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Vorbildwirkung der öffentlichen Hand für nachhaltige öffentliche Beschaffung verwirklichen</t>
+          <t>Klimaschutz</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Giving shape to the public sector’s exemplary role in sustainable procurement</t>
+          <t>Climate protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P01</t>
+          <t>Z14_B01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01</t>
+          <t>Z14</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Treibhausgase reduzieren</t>
+          <t>Meere schützen</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Reducing greenhouse gases</t>
+          <t>Protecting the oceans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01_P02</t>
+          <t>Z15_B01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Beitrag zur internationalen Klimafinanzierung leisten</t>
+          <t>Artenvielfalt</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Germany's contribution to international climate finance</t>
+          <t>Biodiversity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01_P01</t>
+          <t>Z15_B02</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Meere und Meeresressourcen schützen und nachhaltig nutzen</t>
+          <t>Ökosysteme</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Protecting and sustainably using oceans and marine resources</t>
+          <t>Ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01_P01</t>
+          <t>Z16_B01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Arten erhalten – Lebensräume schützen</t>
+          <t>Kriminalität</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Conserving species – Protecting habitats</t>
+          <t>Crime</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P01</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Ökosysteme schützen, Ökosystemleistungen erhalten und Lebensräume bewahren</t>
+          <t>Frieden und Sicherheit</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Protecting ecosystems, conserving ecosystem services and preserving habitats</t>
+          <t>Peace and security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02_P02</t>
+          <t>Z16_B03</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Weltweit Entwaldung vermeiden und Böden schützen</t>
+          <t>Gute Regierungsführung</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Preventing deforestation and protecting soils world-wide</t>
+          <t>Good governance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01_P01</t>
+          <t>Z17_B01</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z17</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Persönliche Sicherheit weiter erhöhen</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Further increasing personal security</t>
+          <t>Development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02_P01</t>
+          <t>Z17_B02</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z17</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Praktische Maßnahmen zur Bekämpfung der Proliferation, insbesondere von Kleinwaffen, ergreifen</t>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Taking practical action to combat proliferation, especially of small arms</t>
+          <t>Knowledge transfer, especially in technical areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03_P01</t>
+          <t>Z17_B03</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z17</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Korruption bekämpfen</t>
+          <t>Märkte öffnen</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Combating corruption</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B01_P01</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B01</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>Nachhaltige Entwicklung unterstützen</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>Supporting sustainable development</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02_P01</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B02</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>Wissen international vermitteln</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>Sharing knowledge internationally</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03_P01</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>Handelschancen der Entwicklungsländer verbessern</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>Improving trade opportunities for developing countries</t>
+          <t>Opening markets</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1329,6 +1329,28 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z03</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Soziale Lage und Gesundheit</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -606,29 +606,29 @@
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Z04_B01</t>
+          <t>Z03_B04</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Z04</t>
+          <t>Z03</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Bildung</t>
+          <t>Soziale Lage und Gesundheit</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Z04_B02</t>
+          <t>Z04_B01</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -638,63 +638,63 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Perspektiven für Familien</t>
+          <t>Bildung</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Prospects for families</t>
+          <t>Education</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01</t>
+          <t>Z04_B02</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Z05</t>
+          <t>Z04</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung</t>
+          <t>Perspektiven für Familien</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Equality</t>
+          <t>Prospects for families</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01</t>
+          <t>Z05_B01</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z05</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Gewässerqualität</t>
+          <t>Gleichstellung</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Water quality</t>
+          <t>Equality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02</t>
+          <t>Z06_B01</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -704,41 +704,41 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>Gewässerqualität</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Drinking water and sanitation</t>
+          <t>Water quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01</t>
+          <t>Z06_B02</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>Z07</t>
+          <t>Z06</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Drinking water and sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02</t>
+          <t>Z07_B01</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -748,41 +748,41 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare Energien</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01</t>
+          <t>Z07_B02</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Erneuerbare Energien</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Renewable energies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02</t>
+          <t>Z08_B01</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -792,19 +792,19 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Staatsverschuldung</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03</t>
+          <t>Z08_B02</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -814,19 +814,19 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Zukunftsvorsorge</t>
+          <t>Staatsverschuldung</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Provision for future economic stability</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04</t>
+          <t>Z08_B03</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Leistungsfähigkeit</t>
+          <t>Wirtschaftliche Zukunftsvorsorge</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Economic output</t>
+          <t>Provision for future economic stability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05</t>
+          <t>Z08_B04</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -858,19 +858,19 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigung</t>
+          <t>Wirtschaftliche Leistungsfähigkeit</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Economic output</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06</t>
+          <t>Z08_B05</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -880,63 +880,63 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Globale Lieferketten</t>
+          <t>Beschäftigung</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Global supply chains</t>
+          <t>Employment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01</t>
+          <t>Z08_B06</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Z09</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Globale Lieferketten</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Global supply chains</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01</t>
+          <t>Z09_B01</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z10</t>
+          <t>Z09</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Gleiche Bildungschancen</t>
+          <t>Innovation</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Equal educational opportunities</t>
+          <t>Innovation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02</t>
+          <t>Z10_B01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -946,41 +946,41 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Verteilungsgerechtigkeit</t>
+          <t>Gleiche Bildungschancen</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Distributive justice</t>
+          <t>Equal educational opportunities</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01</t>
+          <t>Z10_B02</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z10</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Flächeninanspruchnahme</t>
+          <t>Verteilungsgerechtigkeit</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Land use</t>
+          <t>Distributive justice</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02</t>
+          <t>Z11_B01</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -990,19 +990,19 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Mobilität</t>
+          <t>Flächeninanspruchnahme</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Land use</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03</t>
+          <t>Z11_B02</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Wohnen</t>
+          <t>Mobilität</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Mobility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04</t>
+          <t>Z11_B03</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1034,41 +1034,41 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Kulturerbe</t>
+          <t>Wohnen</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Cultural heritage</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01</t>
+          <t>Z11_B04</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Z12</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltiger Konsum</t>
+          <t>Kulturerbe</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Responsible consumption</t>
+          <t>Cultural heritage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02</t>
+          <t>Z12_B01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Produktion</t>
+          <t>Nachhaltiger Konsum</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Responsible production</t>
+          <t>Responsible consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03</t>
+          <t>Z12_B02</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1100,85 +1100,85 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Beschaffung</t>
+          <t>Nachhaltige Produktion</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Responsible procurement</t>
+          <t>Responsible production</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01</t>
+          <t>Z12_B03</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Z13</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Klimaschutz</t>
+          <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Climate protection</t>
+          <t>Responsible procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01</t>
+          <t>Z13_B01</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z14</t>
+          <t>Z13</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Meere schützen</t>
+          <t>Klimaschutz</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Protecting the oceans</t>
+          <t>Climate protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01</t>
+          <t>Z14_B01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z15</t>
+          <t>Z14</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt</t>
+          <t>Meere schützen</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Protecting the oceans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02</t>
+          <t>Z15_B01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -1188,41 +1188,41 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Ökosysteme</t>
+          <t>Artenvielfalt</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Ecosystems</t>
+          <t>Biodiversity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z15_B02</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Kriminalität</t>
+          <t>Ökosysteme</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z16_B01</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Frieden und Sicherheit</t>
+          <t>Kriminalität</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Peace and security</t>
+          <t>Crime</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1254,41 +1254,41 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Gute Regierungsführung</t>
+          <t>Frieden und Sicherheit</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Good governance</t>
+          <t>Peace and security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z16_B03</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Gute Regierungsführung</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>Good governance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z17_B01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Knowledge transfer, especially in technical areas</t>
+          <t>Development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z17_B03</t>
+          <t>Z17_B02</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1320,34 +1320,34 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Märkte öffnen</t>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Opening markets</t>
+          <t>Knowledge transfer, especially in technical areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z03_B04</t>
+          <t>Z17_B03</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z03</t>
+          <t>Z17</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Soziale Lage und Gesundheit</t>
+          <t>Märkte öffnen</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Opening markets</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>XXXSoziale Lage und Gesundheit</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -672,51 +672,51 @@
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Z05_B01</t>
+          <t>Z04_B03</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Z05</t>
+          <t>Z04</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Gleichstellung</t>
+          <t>Soziale Lage und Bildung</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Equality</t>
+          <t>XXXSoziale Lage und Bildung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Z06_B01</t>
+          <t>Z05_B01</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Z06</t>
+          <t>Z05</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Gewässerqualität</t>
+          <t>Gleichstellung</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Water quality</t>
+          <t>Equality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Z06_B02</t>
+          <t>Z06_B01</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -726,41 +726,41 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>Gewässerqualität</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Drinking water and sanitation</t>
+          <t>Water quality</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Z07_B01</t>
+          <t>Z06_B02</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>Z07</t>
+          <t>Z06</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Drinking water and sanitation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Z07_B02</t>
+          <t>Z07_B01</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -770,41 +770,41 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Erneuerbare Energien</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>Renewable energies</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Z08_B01</t>
+          <t>Z07_B02</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Z08</t>
+          <t>Z07</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Ressourcenschonung</t>
+          <t>Erneuerbare Energien</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Resource conservation</t>
+          <t>Renewable energies</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Z08_B02</t>
+          <t>Z08_B01</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -814,19 +814,19 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Staatsverschuldung</t>
+          <t>Ressourcenschonung</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Government debt</t>
+          <t>Resource conservation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Z08_B03</t>
+          <t>Z08_B02</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Zukunftsvorsorge</t>
+          <t>Staatsverschuldung</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Provision for future economic stability</t>
+          <t>Government debt</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Z08_B04</t>
+          <t>Z08_B03</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -858,19 +858,19 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Leistungsfähigkeit</t>
+          <t>Wirtschaftliche Zukunftsvorsorge</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>Economic output</t>
+          <t>Provision for future economic stability</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Z08_B05</t>
+          <t>Z08_B04</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -880,19 +880,19 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Beschäftigung</t>
+          <t>Wirtschaftliche Leistungsfähigkeit</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Economic output</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Z08_B06</t>
+          <t>Z08_B05</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -902,63 +902,63 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Globale Lieferketten</t>
+          <t>Beschäftigung</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Global supply chains</t>
+          <t>Employment</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Z09_B01</t>
+          <t>Z08_B06</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Z09</t>
+          <t>Z08</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Globale Lieferketten</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Innovation</t>
+          <t>Global supply chains</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Z10_B01</t>
+          <t>Z09_B01</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Z10</t>
+          <t>Z09</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Gleiche Bildungschancen</t>
+          <t>Innovation</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>Equal educational opportunities</t>
+          <t>Innovation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Z10_B02</t>
+          <t>Z10_B01</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -968,41 +968,41 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Verteilungsgerechtigkeit</t>
+          <t>Gleiche Bildungschancen</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Distributive justice</t>
+          <t>Equal educational opportunities</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Z11_B01</t>
+          <t>Z10_B02</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z10</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Flächeninanspruchnahme</t>
+          <t>Verteilungsgerechtigkeit</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Land use</t>
+          <t>Distributive justice</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Z11_B02</t>
+          <t>Z11_B01</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Mobilität</t>
+          <t>Flächeninanspruchnahme</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Land use</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Z11_B03</t>
+          <t>Z11_B02</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Wohnen</t>
+          <t>Mobilität</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Mobility</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04</t>
+          <t>Z11_B03</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1056,41 +1056,41 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Kulturerbe</t>
+          <t>Wohnen</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Cultural heritage</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01</t>
+          <t>Z11_B04</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z12</t>
+          <t>Z11</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltiger Konsum</t>
+          <t>Kulturerbe</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Responsible consumption</t>
+          <t>Cultural heritage</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02</t>
+          <t>Z12_B01</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1100,19 +1100,19 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Produktion</t>
+          <t>Nachhaltiger Konsum</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Responsible production</t>
+          <t>Responsible consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03</t>
+          <t>Z12_B02</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1122,85 +1122,85 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Beschaffung</t>
+          <t>Nachhaltige Produktion</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Responsible procurement</t>
+          <t>Responsible production</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z13_B01</t>
+          <t>Z12_B03</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>Z13</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Klimaschutz</t>
+          <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Climate protection</t>
+          <t>Responsible procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Z14_B01</t>
+          <t>Z13_B01</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>Z14</t>
+          <t>Z13</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Meere schützen</t>
+          <t>Klimaschutz</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>Protecting the oceans</t>
+          <t>Climate protection</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Z15_B01</t>
+          <t>Z14_B01</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>Z15</t>
+          <t>Z14</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Artenvielfalt</t>
+          <t>Meere schützen</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>Protecting the oceans</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Z15_B02</t>
+          <t>Z15_B01</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1210,41 +1210,41 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Ökosysteme</t>
+          <t>Artenvielfalt</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>Ecosystems</t>
+          <t>Biodiversity</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z15_B02</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Kriminalität</t>
+          <t>Ökosysteme</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Ecosystems</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z16_B01</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -1254,19 +1254,19 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Frieden und Sicherheit</t>
+          <t>Kriminalität</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Peace and security</t>
+          <t>Crime</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -1276,41 +1276,41 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Gute Regierungsführung</t>
+          <t>Frieden und Sicherheit</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Good governance</t>
+          <t>Peace and security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z16_B03</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Gute Regierungsführung</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>Good governance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z17_B01</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1320,32 +1320,54 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Knowledge transfer, especially in technical areas</t>
+          <t>Development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z17</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Knowledge transfer, especially in technical areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Z17</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>Märkte öffnen</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Opening markets</t>
         </is>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -924,12 +924,12 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Globale Lieferketten</t>
+          <t>Nachhaltige und transparente Unternehmenspraktiken</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>Global supply chains</t>
+          <t>XXXNachhaltige und transparente Unternehmenspraktiken</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -445,7 +445,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="10.984375"/>
     <col customWidth="true" min="2" max="2" width="7.46875"/>
-    <col customWidth="true" min="3" max="3" width="36.03515625"/>
+    <col customWidth="true" min="3" max="3" width="67.3828125"/>
     <col customWidth="true" min="4" max="4" width="42.91796875"/>
   </cols>
   <sheetData>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -1068,29 +1068,29 @@
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Z11_B04</t>
+          <t>Z12_B01</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>Z11</t>
+          <t>Z12</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>Kulturerbe</t>
+          <t>Nachhaltiger Konsum</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>Cultural heritage</t>
+          <t>Responsible consumption</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Z12_B01</t>
+          <t>Z12_B02</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -1100,19 +1100,19 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltiger Konsum</t>
+          <t>Nachhaltige Produktion</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Responsible consumption</t>
+          <t>Responsible production</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Z12_B02</t>
+          <t>Z12_B03</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Produktion</t>
+          <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>Responsible production</t>
+          <t>Responsible procurement</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Z12_B03</t>
+          <t>Z12_B04</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Nachhaltige Beschaffung</t>
+          <t>Verbraucherverschuldung</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>Responsible procurement</t>
+          <t>XXXVerbraucherverschuldung</t>
         </is>
       </c>
     </row>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1244,51 +1244,51 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z15_B03</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Kriminalität</t>
+          <t>Bodendegradation</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Bodendegradation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z15_B04</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z15</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Frieden und Sicherheit</t>
+          <t>Nachhaltige Landnutzung</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Peace and security</t>
+          <t>XXXNachhaltige Landnutzung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z16_B01</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1298,76 +1298,120 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Gute Regierungsführung</t>
+          <t>Kriminalität</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Good governance</t>
+          <t>Crime</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Frieden und Sicherheit</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>Peace and security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z16_B03</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Gute Regierungsführung</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Knowledge transfer, especially in technical areas</t>
+          <t>Good governance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
+          <t>Z17_B01</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Z17</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Development cooperation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Z17</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Knowledge transfer, especially in technical areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Z17</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Märkte öffnen</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Opening markets</t>
         </is>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1288,7 +1288,7 @@
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Z16_B01</t>
+          <t>Z16_B02</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Kriminalität</t>
+          <t>Frieden und Sicherheit</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Peace and security</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Z16_B02</t>
+          <t>Z16_B03</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -1320,41 +1320,41 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Frieden und Sicherheit</t>
+          <t>Gute Regierungsführung</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>Peace and security</t>
+          <t>Good governance</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z16_B03</t>
+          <t>Z17_B01</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z16</t>
+          <t>Z17</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Gute Regierungsführung</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Good governance</t>
+          <t>Development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z17_B02</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1364,19 +1364,19 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>Knowledge transfer, especially in technical areas</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z17_B03</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -1386,32 +1386,10 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Märkte öffnen</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>Knowledge transfer, especially in technical areas</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>Z17_B03</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Z17</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>Märkte öffnen</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Opening markets</t>
         </is>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1332,29 +1332,29 @@
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Z17_B01</t>
+          <t>Z16_B04</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Z17</t>
+          <t>Z16</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Entwicklungszusammenarbeit</t>
+          <t>Finanzkriminalität</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>Development cooperation</t>
+          <t>XXXFinanzkriminalität</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Z17_B02</t>
+          <t>Z17_B01</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -1364,32 +1364,54 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+          <t>Entwicklungszusammenarbeit</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>Knowledge transfer, especially in technical areas</t>
+          <t>Development cooperation</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
+          <t>Z17_B02</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Z17</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Wissenstransfer insbesondere im technischen Bereich</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Knowledge transfer, especially in technical areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
           <t>Z17_B03</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Z17</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>Märkte öffnen</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Opening markets</t>
         </is>

--- a/Tab_2a_Bereiche.xlsx
+++ b/Tab_2a_Bereiche.xlsx
@@ -748,12 +748,12 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Trinkwasser- und Sanitärversorgung</t>
+          <t>Entwicklungszusammenarbeit für Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Drinking water and sanitation</t>
+          <t>XXXDrinking water and sanitation</t>
         </is>
       </c>
     </row>
